--- a/docs/画面項目定義書/user_management/mo_user_add.xlsx
+++ b/docs/画面項目定義書/user_management/mo_user_add.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fittu\OneDrive\ドキュメント\K022C0084\KCI\Kamata-Cloud-Infrastructure\docs\画面項目定義書\user_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E79917-2BF6-4FD5-BE52-6BD78E431E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFD5417-722A-491F-9195-4B4834039702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート１" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>日本工学院</t>
   </si>
@@ -110,10 +110,6 @@
   </si>
   <si>
     <t>利用者が利用可能な仮想マシンの最大ストレージ容量（GB）を入力する</t>
-  </si>
-  <si>
-    <t>入力内容で利用者を追加し、利用者管理画面に戻る</t>
-    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>mo_user_add</t>
@@ -128,9 +124,20 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>ユーザー管理ダッシュボードへ遷移</t>
+    <t>user_management_dashboardへ遷移</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>入力内容で利用者を追加し、user_management_dashboardに戻る</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ユーザー追加画面</t>
     <rPh sb="4" eb="6">
-      <t>カンリ</t>
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -1008,21 +1015,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="18.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="23.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="26.08984375" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
-    <col min="7" max="7" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13">
+    <row r="1" spans="1:7" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1040,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" ht="13">
+    <row r="2" spans="1:7" ht="13.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1042,7 +1049,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="14">
+    <row r="3" spans="1:7" ht="14.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1051,7 +1058,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="13">
+    <row r="4" spans="1:7" ht="13.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1060,7 +1067,7 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13">
+    <row r="5" spans="1:7" ht="13.5">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1073,18 +1080,20 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="13">
+    <row r="6" spans="1:7" ht="13.5">
       <c r="A6" s="38" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B6" s="38"/>
-      <c r="C6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="13"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="13">
+    <row r="7" spans="1:7" ht="13.5">
       <c r="A7" s="4"/>
       <c r="B7" s="14"/>
       <c r="C7" s="4"/>
@@ -1093,7 +1102,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="13">
+    <row r="8" spans="1:7" ht="13.5">
       <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1135,7 +1144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="36">
+    <row r="10" spans="1:7" ht="24">
       <c r="A10" s="28">
         <v>2</v>
       </c>
@@ -1233,29 +1242,29 @@
       <c r="E14" s="32"/>
       <c r="F14" s="33"/>
       <c r="G14" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.5">
       <c r="A15" s="21">
         <v>7</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.5">
       <c r="A16" s="28">
         <v>8</v>
       </c>
@@ -1266,7 +1275,7 @@
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
     </row>
-    <row r="17" spans="1:7" ht="13">
+    <row r="17" spans="1:7" ht="13.5">
       <c r="A17" s="21">
         <v>9</v>
       </c>
@@ -1277,7 +1286,7 @@
       <c r="F17" s="33"/>
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:7" ht="13">
+    <row r="18" spans="1:7" ht="13.5">
       <c r="A18" s="28">
         <v>10</v>
       </c>
@@ -1288,7 +1297,7 @@
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="1:7" ht="13">
+    <row r="19" spans="1:7" ht="13.5">
       <c r="A19" s="21">
         <v>11</v>
       </c>
@@ -1299,7 +1308,7 @@
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" ht="13">
+    <row r="20" spans="1:7" ht="13.5">
       <c r="A20" s="28">
         <v>12</v>
       </c>
@@ -1310,7 +1319,7 @@
       <c r="F20" s="33"/>
       <c r="G20" s="34"/>
     </row>
-    <row r="21" spans="1:7" ht="13">
+    <row r="21" spans="1:7" ht="13.5">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1321,7 +1330,7 @@
       <c r="F21" s="33"/>
       <c r="G21" s="34"/>
     </row>
-    <row r="22" spans="1:7" ht="13">
+    <row r="22" spans="1:7" ht="13.5">
       <c r="A22" s="28">
         <v>14</v>
       </c>
@@ -1332,7 +1341,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="1:7" ht="13">
+    <row r="23" spans="1:7" ht="13.5">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1343,7 +1352,7 @@
       <c r="F23" s="33"/>
       <c r="G23" s="34"/>
     </row>
-    <row r="24" spans="1:7" ht="13">
+    <row r="24" spans="1:7" ht="13.5">
       <c r="A24" s="28">
         <v>16</v>
       </c>
@@ -1354,7 +1363,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="1:7" ht="13">
+    <row r="25" spans="1:7" ht="13.5">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1365,7 +1374,7 @@
       <c r="F25" s="33"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" ht="13">
+    <row r="26" spans="1:7" ht="13.5">
       <c r="A26" s="28"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
@@ -1374,7 +1383,7 @@
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" ht="13">
+    <row r="27" spans="1:7" ht="13.5">
       <c r="A27" s="28"/>
       <c r="B27" s="29"/>
       <c r="C27" s="30"/>
@@ -1383,7 +1392,7 @@
       <c r="F27" s="33"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" ht="13">
+    <row r="28" spans="1:7" ht="13.5">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="30"/>
@@ -1392,7 +1401,7 @@
       <c r="F28" s="33"/>
       <c r="G28" s="34"/>
     </row>
-    <row r="29" spans="1:7" ht="13">
+    <row r="29" spans="1:7" ht="13.5">
       <c r="A29" s="35"/>
       <c r="B29" s="35"/>
       <c r="C29" s="35"/>
